--- a/biology/Biochimie/Complexe_cytochrome_b6f/Complexe_cytochrome_b6f.xlsx
+++ b/biology/Biochimie/Complexe_cytochrome_b6f/Complexe_cytochrome_b6f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe cytochrome b6f, ou complexe de cytochromes b6f, est une oxydoréductase qui catalyse la réaction :
 plastoquinol + 2 plastocyanines oxydées + 2 H+face 1  
@@ -516,20 +528,22 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le complexe cytochrome b6f est un dimère dont chaque monomère est composé de huit sous-unités[2], à savoir quatre grosses sous-unités :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le complexe cytochrome b6f est un dimère dont chaque monomère est composé de huit sous-unités, à savoir quatre grosses sous-unités :
 un cytochrome f avec un cytochrome de type c pour une masse de 32 kDa (sous-unité PetA) ;
 un cytochrome b6 avec un groupe héminique à potentiel haut et potentiel bas pour une masse de 25 kDa (PetB) ;
 une protéine de Rieske contenant un cluster fer-soufre [2Fe-2S] pour une masse de 19 kDa (PetC)  ;
 une sous-unité IV de 17 kDa (PetD) ;
-et quatre petites sous-unités de 3 à 4 kDa chacune et appelées PetG, PetL, PetM et PetN[2]. La masse totale atteint 217 kDa.
-La structure cristallisée de complexes cytochrome b6f de Chlamydomonas reinhardtii, Mastigocladus laminosus and Nostoc sp. PCC 7120 ont été déterminées[1],[3],[4]. La structure du complexe est semblable à celle du cytochrome bc1. Le cytochrome b6 et la sous-unité IV sont semblables au cytochrome b, tandis que les protéines de Rieske des deux complexes sont homologues[5]. Cependant, le cytochrome f et le cytochrome c1 ne sont pas homologues[6].
-Le complexe cytochrome b6f contient sept groupes prosthétiques[7],[8]. Quatre d'entre eux sont présents à la fois dans le cytochrome b6f et dans le cytochrome bc1 :
+et quatre petites sous-unités de 3 à 4 kDa chacune et appelées PetG, PetL, PetM et PetN. La masse totale atteint 217 kDa.
+La structure cristallisée de complexes cytochrome b6f de Chlamydomonas reinhardtii, Mastigocladus laminosus and Nostoc sp. PCC 7120 ont été déterminées. La structure du complexe est semblable à celle du cytochrome bc1. Le cytochrome b6 et la sous-unité IV sont semblables au cytochrome b, tandis que les protéines de Rieske des deux complexes sont homologues. Cependant, le cytochrome f et le cytochrome c1 ne sont pas homologues.
+Le complexe cytochrome b6f contient sept groupes prosthétiques,. Quatre d'entre eux sont présents à la fois dans le cytochrome b6f et dans le cytochrome bc1 :
 la molécule d'hème c, présente dans le cytochrome c1 et dans le cytochrome f ;
 les deux molécules d'hème b ;
 le cluster fer-soufre [2Fe-2S] des protéines de Rieske.
-Les trois autres groupes prosthétiques ne se trouvent que dans les cytochrome b6f[1] :
+Les trois autres groupes prosthétiques ne se trouvent que dans les cytochrome b6f :
 la chlorophylle a ;
 le β-carotène ;
 l'hème cn, également appelé « hème x ».</t>
@@ -560,10 +574,12 @@
           <t>Fonctionnement biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la photosynthèse, le complexe cytochrome b6f intervient dans le transfert des électrons entre deux centres réactionnels, du photosystème II au photosystème I tout en pompant des protons à travers la membrane des thylakoïdes depuis le stroma des chloroplastes vers le lumen des thylakoïdes[9]. C'est la circulation des électrons à travers le complexe cytochrome b6f qui génère le gradient de concentration en protons, et donc le gradient électrochimique, à travers la membrane des thylakoïdes, gradient utilisé pour la phosphorylation de l'ADP en ATP dans les chloroplastes.
-À travers une réaction distincte, le complexe cytochrome b6f joue un rôle central dans la photophosphorylation cyclique, lorsqu'il n'y a pas de NADP+ disponible pour recevoir les électrons de la ferrédoxine réduite. Ce cycle intervient également dans le processus de photosynthèse[10] pour maintenir le ratio de production ATP / NADPH approprié pour la fixation du carbone[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la photosynthèse, le complexe cytochrome b6f intervient dans le transfert des électrons entre deux centres réactionnels, du photosystème II au photosystème I tout en pompant des protons à travers la membrane des thylakoïdes depuis le stroma des chloroplastes vers le lumen des thylakoïdes. C'est la circulation des électrons à travers le complexe cytochrome b6f qui génère le gradient de concentration en protons, et donc le gradient électrochimique, à travers la membrane des thylakoïdes, gradient utilisé pour la phosphorylation de l'ADP en ATP dans les chloroplastes.
+À travers une réaction distincte, le complexe cytochrome b6f joue un rôle central dans la photophosphorylation cyclique, lorsqu'il n'y a pas de NADP+ disponible pour recevoir les électrons de la ferrédoxine réduite. Ce cycle intervient également dans le processus de photosynthèse pour maintenir le ratio de production ATP / NADPH approprié pour la fixation du carbone.
 </t>
         </is>
       </c>
